--- a/data_processed/20250620/BTCUSDQMOMENT_20250620.xlsx
+++ b/data_processed/20250620/BTCUSDQMOMENT_20250620.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>7.052864070537641</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>1.498352733344487</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.7413492207625757</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.7369451616989244</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.647587210590345</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">

--- a/data_processed/20250620/BTCUSDQMOMENT_20250620.xlsx
+++ b/data_processed/20250620/BTCUSDQMOMENT_20250620.xlsx
@@ -594,19 +594,19 @@
         <v>0.1917808219178082</v>
       </c>
       <c r="D4" t="n">
-        <v>104858.3502287474</v>
+        <v>104806.3676698649</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.05214616442233581</v>
+        <v>-0.05427801192534044</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2168686185549965</v>
+        <v>0.2237048278216053</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.834632429578413</v>
+        <v>-0.998740133840526</v>
       </c>
       <c r="H4" t="n">
-        <v>7.052864070537641</v>
+        <v>8.102398338075705</v>
       </c>
       <c r="I4" t="n">
         <v>1.498352733344487</v>
@@ -636,19 +636,19 @@
         <v>0.2684931506849315</v>
       </c>
       <c r="D5" t="n">
-        <v>105442.5627114954</v>
+        <v>105442.7421606334</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.05763045949959151</v>
+        <v>-0.05695932407022027</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2792626336437908</v>
+        <v>0.2710939404004757</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.436487981423183</v>
+        <v>-2.048719180784073</v>
       </c>
       <c r="H5" t="n">
-        <v>24.17977612526108</v>
+        <v>18.20988765032978</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -670,19 +670,19 @@
         <v>0.3643835616438356</v>
       </c>
       <c r="D6" t="n">
-        <v>106042.9059837993</v>
+        <v>106042.563472038</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.06044233546183361</v>
+        <v>-0.06060798507591186</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2732789520982369</v>
+        <v>0.2747870632832989</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.487152160486011</v>
+        <v>-1.542157623214067</v>
       </c>
       <c r="H6" t="n">
-        <v>11.61047857263704</v>
+        <v>12.22864035222789</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -704,19 +704,19 @@
         <v>0.4410958904109589</v>
       </c>
       <c r="D7" t="n">
-        <v>106657.179564533</v>
+        <v>106658.3775030086</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.07112876143904676</v>
+        <v>-0.0710663309355213</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3333125752505816</v>
+        <v>0.3330032235807257</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.242534534907232</v>
+        <v>-2.238377426997002</v>
       </c>
       <c r="H7" t="n">
-        <v>15.63368388172145</v>
+        <v>15.60446483463334</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -738,19 +738,19 @@
         <v>0.5178082191780822</v>
       </c>
       <c r="D8" t="n">
-        <v>107311.4876234235</v>
+        <v>107299.6524794298</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.06292333357518901</v>
+        <v>-0.06339223643104629</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2727608725984976</v>
+        <v>0.2745970157817861</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.9085097610916109</v>
+        <v>-0.947614428794478</v>
       </c>
       <c r="H8" t="n">
-        <v>6.995987442448771</v>
+        <v>7.276718644171352</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -772,19 +772,19 @@
         <v>0.9397260273972603</v>
       </c>
       <c r="D9" t="n">
-        <v>108509.6900111117</v>
+        <v>108514.9872278934</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.08170008807130218</v>
+        <v>-0.08098588922748917</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2663034984999041</v>
+        <v>0.2615696624129245</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.305136408465953</v>
+        <v>-1.156236635598374</v>
       </c>
       <c r="H9" t="n">
-        <v>9.227903562893774</v>
+        <v>7.78197903668239</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -806,19 +806,19 @@
         <v>1.016438356164383</v>
       </c>
       <c r="D10" t="n">
-        <v>110330.0634457994</v>
+        <v>110327.0895838107</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1174208871160208</v>
+        <v>-0.1180677421501296</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3986926563164651</v>
+        <v>0.4031756866540213</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.538179139810733</v>
+        <v>-1.604277559724129</v>
       </c>
       <c r="H10" t="n">
-        <v>8.645299362154294</v>
+        <v>9.180149728575055</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -840,19 +840,19 @@
         <v>1.265753424657534</v>
       </c>
       <c r="D11" t="n">
-        <v>111470.9190820615</v>
+        <v>111468.1096214049</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1596059070984568</v>
+        <v>-0.1602817381780751</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5044186960288123</v>
+        <v>0.5088050387519121</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.610743769073512</v>
+        <v>-1.648640794411797</v>
       </c>
       <c r="H11" t="n">
-        <v>7.229154757150962</v>
+        <v>7.501703896379907</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -874,19 +874,19 @@
         <v>1.512328767123288</v>
       </c>
       <c r="D12" t="n">
-        <v>113906.4517350754</v>
+        <v>112544.354143515</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.1376441332046081</v>
+        <v>-0.1717696007443023</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4112234904316801</v>
+        <v>0.5023922918757532</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.169887815184665</v>
+        <v>-1.520841333433046</v>
       </c>
       <c r="H12" t="n">
-        <v>5.230441230100878</v>
+        <v>6.681400323468833</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -950,19 +950,19 @@
         <v>0.0273972602739726</v>
       </c>
       <c r="D14" t="n">
-        <v>104165.5616544189</v>
+        <v>104098.9759193644</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.07175833939307374</v>
+        <v>-0.07644172311150114</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1606816206627745</v>
+        <v>0.1716495259302693</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1118187723265177</v>
+        <v>-0.4637748782001339</v>
       </c>
       <c r="H14" t="n">
-        <v>5.705647061410545</v>
+        <v>7.425377512616324</v>
       </c>
       <c r="I14" t="n">
         <v>0.06398469499100876</v>
@@ -1034,19 +1034,19 @@
         <v>0.0136986301369863</v>
       </c>
       <c r="D16" t="n">
-        <v>103300.6625120524</v>
+        <v>103326.7708636718</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.1647555693229298</v>
+        <v>-0.1616264213003777</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1922217675553268</v>
+        <v>0.1721305297528183</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.054294210338369</v>
+        <v>-0.9193210319563938</v>
       </c>
       <c r="H16" t="n">
-        <v>20.22736550601745</v>
+        <v>6.447565790854446</v>
       </c>
       <c r="I16" t="n">
         <v>-0.2613834592165559</v>
@@ -1118,19 +1118,19 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="D18" t="n">
-        <v>103884.3322670959</v>
+        <v>104101.039984516</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.09137283959933948</v>
+        <v>-0.06891200518171775</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3545237845243455</v>
+        <v>0.1678159015713327</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.074554050638495</v>
+        <v>-0.4344410596768205</v>
       </c>
       <c r="H18" t="n">
-        <v>102.5703654864765</v>
+        <v>5.701134797319142</v>
       </c>
       <c r="I18" t="n">
         <v>0.1964661333931829</v>
@@ -1202,19 +1202,19 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="D20" t="n">
-        <v>104061.7972199287</v>
+        <v>104211.616198819</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.08491185811326474</v>
+        <v>-0.0639012016028859</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5419390642760926</v>
+        <v>0.2316135982264532</v>
       </c>
       <c r="G20" t="n">
-        <v>-12.78768962832853</v>
+        <v>-2.922824638629686</v>
       </c>
       <c r="H20" t="n">
-        <v>270.2174174810291</v>
+        <v>35.52112564720923</v>
       </c>
       <c r="I20" t="n">
         <v>0.9000803002814424</v>
@@ -1244,19 +1244,19 @@
         <v>0.1150684931506849</v>
       </c>
       <c r="D21" t="n">
-        <v>104795.6247733131</v>
+        <v>104802.5009393485</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.0579660515732574</v>
+        <v>-0.05693102613717658</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3194103663414138</v>
+        <v>0.3052255104890294</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.163205615817492</v>
+        <v>-3.410687159462758</v>
       </c>
       <c r="H21" t="n">
-        <v>47.32328251854952</v>
+        <v>29.25562509652999</v>
       </c>
       <c r="I21" t="n">
         <v>1.327150952641069</v>

--- a/data_processed/20250620/BTCUSDQMOMENT_20250620.xlsx
+++ b/data_processed/20250620/BTCUSDQMOMENT_20250620.xlsx
@@ -650,10 +650,18 @@
       <c r="H5" t="n">
         <v>18.20988765032978</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>1.460692394508935</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5873532474626186</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.6575308174542319</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.950868208370507</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">

--- a/data_processed/20250620/BTCUSDQMOMENT_20250620.xlsx
+++ b/data_processed/20250620/BTCUSDQMOMENT_20250620.xlsx
@@ -692,10 +692,18 @@
       <c r="H6" t="n">
         <v>12.22864035222789</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>1.477282346912468</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.6430008601316372</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.2172062532435262</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.742617893978283</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
